--- a/code/measurement/tempLog.xlsx
+++ b/code/measurement/tempLog.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,53 +369,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure P_test_1 </t>
+          <t xml:space="preserve">Tpye J	</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>Type K</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Time Recorded	</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pressure P_test_2 </t>
-        </is>
+      <c r="A2" t="n">
+        <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>793</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               2020-05-11 02:13:13   </t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">wall shear sterss </t>
-        </is>
+      <c r="A3" t="n">
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>24.216</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               2020-05-11 02:13:17   </t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Y_apparent shear strain </t>
-        </is>
+      <c r="A4" t="n">
+        <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>127323954.4735163</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">calculated viscosity </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.901920192483261e-07</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               2020-05-11 02:13:21   </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/code/measurement/tempLog.xlsx
+++ b/code/measurement/tempLog.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,43 +384,104 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>32</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32.0        </t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">               2020-05-11 02:13:13   </t>
+          <t xml:space="preserve">               2020-05-11 02:19:24   </t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>32</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32.0        </t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>32</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">               2020-05-11 02:13:17   </t>
+          <t xml:space="preserve">               2020-05-11 02:19:28   </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>32</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32.0        </t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>32</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">               2020-05-11 02:13:21   </t>
-        </is>
-      </c>
+          <t xml:space="preserve">               2020-05-11 02:19:33   </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pressure P_test_1 </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>921</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pressure P_test_2 </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>503</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wall shear sterss </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24.216</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Y_apparent shear strain </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>127323954.4735163</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">calculated viscosity </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.901920192483261e-07</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
